--- a/biology/Botanique/Gratiole/Gratiole.xlsx
+++ b/biology/Botanique/Gratiole/Gratiole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gratiola
-Gratiola  (en français, les gratioles) constitue un genre de plantes herbacées annuelles ou vivaces de la famille des Scrofulariacées selon la classification classique, ou de celle des Plantaginacées selon la classification phylogénétique. Certains botanistes le classent dans une famille à part, les Gratiolaceae[1].
+Gratiola  (en français, les gratioles) constitue un genre de plantes herbacées annuelles ou vivaces de la famille des Scrofulariacées selon la classification classique, ou de celle des Plantaginacées selon la classification phylogénétique. Certains botanistes le classent dans une famille à part, les Gratiolaceae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vernaculaire de Gratiole est un diminutif de Gratia Dei, « Grâce de Dieu », en référence aux propriétés médicinales de Gratiola officinalis[2] (espèce qui est actuellement considérée comme toxique).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vernaculaire de Gratiole est un diminutif de Gratia Dei, « Grâce de Dieu », en référence aux propriétés médicinales de Gratiola officinalis (espèce qui est actuellement considérée comme toxique).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre contient près de 33 espèces[3], dont :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le genre contient près de 33 espèces, dont :
 Gratiola amphiantha
 Gratiola aurea
 Gratiola brevifolia
@@ -588,7 +604,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sophronanthe Benth. 1846
 Tragiola J.Small et Pennell 1935</t>
